--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -651,10 +663,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -698,28 +710,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -744,28 +756,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1114,10 +1126,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1161,28 +1173,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1207,28 +1219,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1490,10 +1502,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1537,28 +1549,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1583,28 +1595,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1750,10 +1762,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J56" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1797,28 +1809,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1843,28 +1855,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2068,10 +2080,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="J67" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2115,28 +2127,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2161,28 +2173,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2357,10 +2369,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="J77" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2404,28 +2416,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2450,28 +2462,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2646,10 +2658,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="J87" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2693,28 +2705,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2739,28 +2751,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2964,10 +2976,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
+      <c r="J98" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3011,28 +3023,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3057,28 +3069,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3311,10 +3323,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
+      <c r="J110" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K110" s="2" t="s">
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3358,28 +3370,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3404,28 +3416,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3600,10 +3612,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
+      <c r="J120" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K120" s="2" t="s">
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3647,28 +3659,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3693,28 +3705,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3889,10 +3901,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
+      <c r="J130" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K130" s="2" t="s">
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3936,28 +3948,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3982,28 +3994,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4149,10 +4161,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
+      <c r="J139" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K139" s="2" t="s">
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4196,28 +4208,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4242,28 +4254,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4438,10 +4450,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
+      <c r="J149" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K149" s="2" t="s">
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4485,28 +4497,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4531,28 +4543,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4698,10 +4710,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
+      <c r="J158" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K158" s="2" t="s">
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4745,28 +4757,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4791,28 +4803,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4987,10 +4999,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
+      <c r="J168" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K168" s="2" t="s">
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5034,28 +5046,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5080,28 +5092,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5218,10 +5230,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
+      <c r="J176" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K176" s="2" t="s">
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5265,28 +5277,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5311,28 +5323,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5420,10 +5432,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
+      <c r="J183" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K183" s="2" t="s">
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5467,28 +5479,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5513,28 +5525,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5622,10 +5634,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
+      <c r="J190" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K190" s="2" t="s">
+      <c r="K190" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5669,28 +5681,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5715,28 +5727,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5795,10 +5807,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
+      <c r="J196" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K196" s="2" t="s">
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4296" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -663,10 +711,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -710,28 +758,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="4">
+      <c r="A20" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="4">
+      <c r="B20" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="4">
+      <c r="C20" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="4">
+      <c r="D20" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="4">
+      <c r="E20" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="4">
+      <c r="F20" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="4">
+      <c r="G20" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="4">
+      <c r="H20" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -756,28 +804,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="4">
+      <c r="B22" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="4">
+      <c r="C22" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="4">
+      <c r="D22" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="4">
+      <c r="E22" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="4">
+      <c r="F22" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="4">
+      <c r="G22" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="4">
+      <c r="H22" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="4">
+      <c r="I22" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1126,10 +1174,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1173,28 +1221,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="4">
+      <c r="A36" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="4">
+      <c r="B36" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="4">
+      <c r="C36" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D36" t="s" s="4">
+      <c r="D36" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="4">
+      <c r="E36" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="4">
+      <c r="F36" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="4">
+      <c r="G36" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="4">
+      <c r="H36" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1219,28 +1267,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="4">
+      <c r="B38" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="4">
+      <c r="C38" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="4">
+      <c r="D38" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="4">
+      <c r="E38" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="4">
+      <c r="F38" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="4">
+      <c r="G38" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="4">
+      <c r="H38" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="4">
+      <c r="I38" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1502,10 +1550,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="J47" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K47" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1549,28 +1597,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="4">
+      <c r="A49" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="4">
+      <c r="B49" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="4">
+      <c r="C49" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D49" t="s" s="4">
+      <c r="D49" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="4">
+      <c r="E49" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="4">
+      <c r="F49" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="4">
+      <c r="G49" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="4">
+      <c r="H49" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1595,28 +1643,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="4">
+      <c r="B51" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="4">
+      <c r="C51" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="4">
+      <c r="D51" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="4">
+      <c r="E51" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="4">
+      <c r="F51" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="4">
+      <c r="G51" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="4">
+      <c r="H51" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="4">
+      <c r="I51" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1762,10 +1810,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="J56" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K56" s="4" t="s">
+      <c r="K56" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1809,28 +1857,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="4">
+      <c r="A58" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="4">
+      <c r="B58" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="4">
+      <c r="C58" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D58" t="s" s="4">
+      <c r="D58" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="4">
+      <c r="E58" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="4">
+      <c r="F58" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="4">
+      <c r="G58" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="4">
+      <c r="H58" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1855,28 +1903,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="4">
+      <c r="B60" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="4">
+      <c r="C60" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="4">
+      <c r="D60" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="4">
+      <c r="E60" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="4">
+      <c r="F60" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="4">
+      <c r="G60" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="4">
+      <c r="H60" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="4">
+      <c r="I60" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2080,10 +2128,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="J67" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K67" s="4" t="s">
+      <c r="K67" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2127,28 +2175,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="4">
+      <c r="A69" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="4">
+      <c r="B69" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="4">
+      <c r="C69" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D69" t="s" s="4">
+      <c r="D69" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="4">
+      <c r="E69" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="4">
+      <c r="F69" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="4">
+      <c r="G69" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="4">
+      <c r="H69" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2173,28 +2221,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="4">
+      <c r="B71" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="4">
+      <c r="C71" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="4">
+      <c r="D71" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="4">
+      <c r="E71" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="4">
+      <c r="F71" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="4">
+      <c r="G71" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="4">
+      <c r="H71" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="4">
+      <c r="I71" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2369,10 +2417,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="4" t="s">
+      <c r="J77" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K77" s="4" t="s">
+      <c r="K77" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2416,28 +2464,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="4">
+      <c r="A79" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="4">
+      <c r="B79" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="4">
+      <c r="C79" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D79" t="s" s="4">
+      <c r="D79" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="4">
+      <c r="E79" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="4">
+      <c r="F79" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="4">
+      <c r="G79" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="4">
+      <c r="H79" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2462,28 +2510,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="4">
+      <c r="B81" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="4">
+      <c r="C81" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="4">
+      <c r="D81" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="4">
+      <c r="E81" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="4">
+      <c r="F81" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="4">
+      <c r="G81" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="4">
+      <c r="H81" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="4">
+      <c r="I81" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2658,10 +2706,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="4" t="s">
+      <c r="J87" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K87" s="4" t="s">
+      <c r="K87" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2705,28 +2753,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="4">
+      <c r="A89" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="4">
+      <c r="B89" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="4">
+      <c r="C89" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D89" t="s" s="4">
+      <c r="D89" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="4">
+      <c r="E89" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="4">
+      <c r="F89" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="4">
+      <c r="G89" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="4">
+      <c r="H89" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2751,28 +2799,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="4">
+      <c r="B91" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="4">
+      <c r="C91" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="4">
+      <c r="D91" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="4">
+      <c r="E91" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="4">
+      <c r="F91" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="4">
+      <c r="G91" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="4">
+      <c r="H91" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="4">
+      <c r="I91" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2976,10 +3024,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="4" t="s">
+      <c r="J98" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K98" s="4" t="s">
+      <c r="K98" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3023,28 +3071,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="4">
+      <c r="A100" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="4">
+      <c r="B100" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="4">
+      <c r="C100" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D100" t="s" s="4">
+      <c r="D100" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="4">
+      <c r="E100" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="4">
+      <c r="F100" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="4">
+      <c r="G100" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="4">
+      <c r="H100" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3069,28 +3117,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="4">
+      <c r="B102" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="4">
+      <c r="C102" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="4">
+      <c r="D102" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="4">
+      <c r="E102" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="4">
+      <c r="F102" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="4">
+      <c r="G102" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="4">
+      <c r="H102" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="4">
+      <c r="I102" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3323,10 +3371,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="4" t="s">
+      <c r="J110" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K110" s="4" t="s">
+      <c r="K110" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3370,28 +3418,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="4">
+      <c r="A112" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="4">
+      <c r="B112" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="4">
+      <c r="C112" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D112" t="s" s="4">
+      <c r="D112" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="4">
+      <c r="E112" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="4">
+      <c r="F112" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="4">
+      <c r="G112" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="4">
+      <c r="H112" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3416,28 +3464,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="4">
+      <c r="B114" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="4">
+      <c r="C114" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="4">
+      <c r="D114" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="4">
+      <c r="E114" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="4">
+      <c r="F114" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="4">
+      <c r="G114" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="4">
+      <c r="H114" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="4">
+      <c r="I114" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3612,10 +3660,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="4" t="s">
+      <c r="J120" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K120" s="4" t="s">
+      <c r="K120" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3659,28 +3707,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="4">
+      <c r="A122" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="4">
+      <c r="B122" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="4">
+      <c r="C122" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D122" t="s" s="4">
+      <c r="D122" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="4">
+      <c r="E122" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="4">
+      <c r="F122" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="4">
+      <c r="G122" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="4">
+      <c r="H122" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3705,28 +3753,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="4">
+      <c r="B124" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="4">
+      <c r="C124" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="4">
+      <c r="D124" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="4">
+      <c r="E124" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="4">
+      <c r="F124" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="4">
+      <c r="G124" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="4">
+      <c r="H124" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="4">
+      <c r="I124" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3901,10 +3949,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="4" t="s">
+      <c r="J130" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K130" s="4" t="s">
+      <c r="K130" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3948,28 +3996,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="4">
+      <c r="A132" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="4">
+      <c r="B132" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="4">
+      <c r="C132" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D132" t="s" s="4">
+      <c r="D132" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="4">
+      <c r="E132" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="4">
+      <c r="F132" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="4">
+      <c r="G132" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="4">
+      <c r="H132" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3994,28 +4042,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="4">
+      <c r="B134" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="4">
+      <c r="C134" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="4">
+      <c r="D134" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="4">
+      <c r="E134" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="4">
+      <c r="F134" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="4">
+      <c r="G134" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="4">
+      <c r="H134" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="4">
+      <c r="I134" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4161,10 +4209,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="4" t="s">
+      <c r="J139" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K139" s="4" t="s">
+      <c r="K139" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4208,28 +4256,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="4">
+      <c r="A141" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="4">
+      <c r="B141" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="4">
+      <c r="C141" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D141" t="s" s="4">
+      <c r="D141" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="4">
+      <c r="E141" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="4">
+      <c r="F141" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="4">
+      <c r="G141" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="4">
+      <c r="H141" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4254,28 +4302,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="4">
+      <c r="B143" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="4">
+      <c r="C143" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="4">
+      <c r="D143" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="4">
+      <c r="E143" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="4">
+      <c r="F143" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="4">
+      <c r="G143" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="4">
+      <c r="H143" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="4">
+      <c r="I143" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4450,10 +4498,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="4" t="s">
+      <c r="J149" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K149" s="4" t="s">
+      <c r="K149" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4497,28 +4545,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="4">
+      <c r="A151" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="4">
+      <c r="B151" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="4">
+      <c r="C151" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D151" t="s" s="4">
+      <c r="D151" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="4">
+      <c r="E151" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="4">
+      <c r="F151" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="4">
+      <c r="G151" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="4">
+      <c r="H151" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4543,28 +4591,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="4">
+      <c r="B153" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="4">
+      <c r="C153" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="4">
+      <c r="D153" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="4">
+      <c r="E153" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="4">
+      <c r="F153" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="4">
+      <c r="G153" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="4">
+      <c r="H153" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="4">
+      <c r="I153" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4710,10 +4758,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="4" t="s">
+      <c r="J158" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K158" s="4" t="s">
+      <c r="K158" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4757,28 +4805,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="4">
+      <c r="A160" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="4">
+      <c r="B160" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="4">
+      <c r="C160" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D160" t="s" s="4">
+      <c r="D160" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="4">
+      <c r="E160" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="4">
+      <c r="F160" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="4">
+      <c r="G160" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="4">
+      <c r="H160" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4803,28 +4851,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="4">
+      <c r="B162" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="4">
+      <c r="C162" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="4">
+      <c r="D162" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="4">
+      <c r="E162" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="4">
+      <c r="F162" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="4">
+      <c r="G162" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="4">
+      <c r="H162" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="4">
+      <c r="I162" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4999,10 +5047,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="4" t="s">
+      <c r="J168" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K168" s="4" t="s">
+      <c r="K168" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5046,28 +5094,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="4">
+      <c r="A170" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="4">
+      <c r="C170" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D170" t="s" s="4">
+      <c r="D170" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5092,28 +5140,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="4">
+      <c r="C172" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="4">
+      <c r="D172" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="4">
+      <c r="G172" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="4">
+      <c r="H172" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="4">
+      <c r="I172" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5230,10 +5278,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="4" t="s">
+      <c r="J176" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K176" s="4" t="s">
+      <c r="K176" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5277,28 +5325,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="4">
+      <c r="A178" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="4">
+      <c r="B178" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="4">
+      <c r="C178" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D178" t="s" s="4">
+      <c r="D178" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="4">
+      <c r="E178" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="4">
+      <c r="F178" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="4">
+      <c r="G178" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="4">
+      <c r="H178" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5323,28 +5371,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="4">
+      <c r="B180" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="4">
+      <c r="C180" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="4">
+      <c r="D180" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="4">
+      <c r="E180" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="4">
+      <c r="F180" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="4">
+      <c r="G180" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="4">
+      <c r="H180" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="4">
+      <c r="I180" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5432,10 +5480,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="4" t="s">
+      <c r="J183" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K183" s="4" t="s">
+      <c r="K183" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5479,28 +5527,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="4">
+      <c r="A185" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="4">
+      <c r="B185" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="4">
+      <c r="C185" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D185" t="s" s="4">
+      <c r="D185" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="4">
+      <c r="E185" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="4">
+      <c r="F185" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="4">
+      <c r="G185" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="4">
+      <c r="H185" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5525,28 +5573,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="4">
+      <c r="B187" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="4">
+      <c r="C187" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="4">
+      <c r="D187" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="4">
+      <c r="E187" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="4">
+      <c r="F187" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="4">
+      <c r="G187" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="4">
+      <c r="H187" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="4">
+      <c r="I187" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5634,10 +5682,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="4" t="s">
+      <c r="J190" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K190" s="4" t="s">
+      <c r="K190" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5681,28 +5729,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="4">
+      <c r="A192" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="4">
+      <c r="B192" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="4">
+      <c r="C192" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D192" t="s" s="4">
+      <c r="D192" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="4">
+      <c r="E192" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="4">
+      <c r="F192" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="4">
+      <c r="G192" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="4">
+      <c r="H192" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5727,28 +5775,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="4">
+      <c r="B194" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="4">
+      <c r="C194" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="4">
+      <c r="D194" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="4">
+      <c r="E194" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="4">
+      <c r="F194" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="4">
+      <c r="G194" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="4">
+      <c r="H194" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="4">
+      <c r="I194" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5807,10 +5855,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="4" t="s">
+      <c r="J196" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K196" s="4" t="s">
+      <c r="K196" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c102_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4296" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5370" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
+      <c r="C3" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="12">
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -711,10 +729,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -758,28 +776,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="12">
+      <c r="A20" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="12">
+      <c r="B20" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="12">
+      <c r="C20" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="12">
+      <c r="D20" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="12">
+      <c r="E20" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="12">
+      <c r="F20" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="12">
+      <c r="G20" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="12">
+      <c r="H20" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -804,28 +822,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="12">
+      <c r="B22" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="12">
+      <c r="C22" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="12">
+      <c r="D22" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="12">
+      <c r="E22" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="12">
+      <c r="F22" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="12">
+      <c r="G22" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="12">
+      <c r="H22" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="12">
+      <c r="I22" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1174,10 +1192,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="12" t="s">
+      <c r="K34" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1221,28 +1239,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="12">
+      <c r="A36" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="12">
+      <c r="B36" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="12">
+      <c r="C36" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D36" t="s" s="12">
+      <c r="D36" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="12">
+      <c r="E36" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="12">
+      <c r="F36" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="12">
+      <c r="G36" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="12">
+      <c r="H36" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1267,28 +1285,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="12">
+      <c r="B38" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="12">
+      <c r="C38" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="12">
+      <c r="D38" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="12">
+      <c r="E38" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="12">
+      <c r="F38" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="12">
+      <c r="G38" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="12">
+      <c r="H38" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="12">
+      <c r="I38" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1550,10 +1568,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="12" t="s">
+      <c r="J47" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="12" t="s">
+      <c r="K47" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1597,28 +1615,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="12">
+      <c r="A49" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="12">
+      <c r="B49" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="12">
+      <c r="C49" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D49" t="s" s="12">
+      <c r="D49" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="12">
+      <c r="E49" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="12">
+      <c r="F49" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="12">
+      <c r="G49" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="12">
+      <c r="H49" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1643,28 +1661,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="12">
+      <c r="B51" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="12">
+      <c r="C51" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="12">
+      <c r="D51" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="12">
+      <c r="E51" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="12">
+      <c r="F51" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="12">
+      <c r="G51" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="12">
+      <c r="H51" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="12">
+      <c r="I51" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1810,10 +1828,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="12" t="s">
+      <c r="J56" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K56" s="12" t="s">
+      <c r="K56" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1857,28 +1875,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="12">
+      <c r="A58" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="12">
+      <c r="B58" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="12">
+      <c r="C58" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D58" t="s" s="12">
+      <c r="D58" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="12">
+      <c r="E58" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="12">
+      <c r="F58" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="12">
+      <c r="G58" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="12">
+      <c r="H58" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1903,28 +1921,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="12">
+      <c r="B60" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="12">
+      <c r="C60" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="12">
+      <c r="D60" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="12">
+      <c r="E60" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="12">
+      <c r="F60" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="12">
+      <c r="G60" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="12">
+      <c r="H60" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="12">
+      <c r="I60" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2128,10 +2146,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="12" t="s">
+      <c r="J67" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K67" s="12" t="s">
+      <c r="K67" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2175,28 +2193,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="12">
+      <c r="A69" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="12">
+      <c r="B69" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="12">
+      <c r="C69" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D69" t="s" s="12">
+      <c r="D69" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="12">
+      <c r="E69" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="12">
+      <c r="F69" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="12">
+      <c r="G69" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="12">
+      <c r="H69" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2221,28 +2239,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="12">
+      <c r="B71" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="12">
+      <c r="C71" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="12">
+      <c r="D71" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="12">
+      <c r="E71" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="12">
+      <c r="F71" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="12">
+      <c r="G71" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="12">
+      <c r="H71" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="12">
+      <c r="I71" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2417,10 +2435,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="12" t="s">
+      <c r="J77" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K77" s="12" t="s">
+      <c r="K77" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2464,28 +2482,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="12">
+      <c r="A79" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="12">
+      <c r="B79" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="12">
+      <c r="C79" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D79" t="s" s="12">
+      <c r="D79" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="12">
+      <c r="E79" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="12">
+      <c r="F79" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="12">
+      <c r="G79" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="12">
+      <c r="H79" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2510,28 +2528,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="12">
+      <c r="B81" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="12">
+      <c r="C81" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="12">
+      <c r="D81" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="12">
+      <c r="E81" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="12">
+      <c r="F81" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="12">
+      <c r="G81" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="12">
+      <c r="H81" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="12">
+      <c r="I81" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2706,10 +2724,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="12" t="s">
+      <c r="J87" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K87" s="12" t="s">
+      <c r="K87" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2753,28 +2771,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="12">
+      <c r="A89" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="12">
+      <c r="B89" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="12">
+      <c r="C89" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D89" t="s" s="12">
+      <c r="D89" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="12">
+      <c r="E89" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="12">
+      <c r="F89" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="12">
+      <c r="G89" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="12">
+      <c r="H89" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2799,28 +2817,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="12">
+      <c r="B91" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="12">
+      <c r="C91" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="12">
+      <c r="D91" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="12">
+      <c r="E91" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="12">
+      <c r="F91" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="12">
+      <c r="G91" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="12">
+      <c r="H91" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="12">
+      <c r="I91" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3024,10 +3042,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="12" t="s">
+      <c r="J98" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K98" s="12" t="s">
+      <c r="K98" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3071,28 +3089,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="12">
+      <c r="A100" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="12">
+      <c r="B100" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="12">
+      <c r="C100" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D100" t="s" s="12">
+      <c r="D100" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="12">
+      <c r="E100" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="12">
+      <c r="F100" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="12">
+      <c r="G100" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="12">
+      <c r="H100" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3117,28 +3135,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="12">
+      <c r="B102" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="12">
+      <c r="C102" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="12">
+      <c r="D102" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="12">
+      <c r="E102" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="12">
+      <c r="F102" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="12">
+      <c r="G102" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="12">
+      <c r="H102" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="12">
+      <c r="I102" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3371,10 +3389,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="12" t="s">
+      <c r="J110" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K110" s="12" t="s">
+      <c r="K110" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3418,28 +3436,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="12">
+      <c r="A112" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="12">
+      <c r="B112" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="12">
+      <c r="C112" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D112" t="s" s="12">
+      <c r="D112" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="12">
+      <c r="E112" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="12">
+      <c r="F112" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="12">
+      <c r="G112" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="12">
+      <c r="H112" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3464,28 +3482,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="12">
+      <c r="B114" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="12">
+      <c r="C114" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="12">
+      <c r="D114" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="12">
+      <c r="E114" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="12">
+      <c r="F114" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="12">
+      <c r="G114" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="12">
+      <c r="H114" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="12">
+      <c r="I114" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3660,10 +3678,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="12" t="s">
+      <c r="J120" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K120" s="12" t="s">
+      <c r="K120" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3707,28 +3725,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="12">
+      <c r="A122" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="12">
+      <c r="B122" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="12">
+      <c r="C122" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D122" t="s" s="12">
+      <c r="D122" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="12">
+      <c r="E122" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="12">
+      <c r="F122" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="12">
+      <c r="G122" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="12">
+      <c r="H122" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3753,28 +3771,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="12">
+      <c r="B124" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="12">
+      <c r="C124" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="12">
+      <c r="D124" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="12">
+      <c r="E124" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="12">
+      <c r="F124" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="12">
+      <c r="G124" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="12">
+      <c r="H124" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="12">
+      <c r="I124" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3949,10 +3967,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="12" t="s">
+      <c r="J130" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K130" s="12" t="s">
+      <c r="K130" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3996,28 +4014,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="12">
+      <c r="A132" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="12">
+      <c r="B132" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="12">
+      <c r="C132" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D132" t="s" s="12">
+      <c r="D132" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="12">
+      <c r="E132" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="12">
+      <c r="F132" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="12">
+      <c r="G132" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="12">
+      <c r="H132" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4042,28 +4060,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="12">
+      <c r="B134" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="12">
+      <c r="C134" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="12">
+      <c r="D134" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="12">
+      <c r="E134" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="12">
+      <c r="F134" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="12">
+      <c r="G134" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="12">
+      <c r="H134" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="12">
+      <c r="I134" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4209,10 +4227,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="12" t="s">
+      <c r="J139" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K139" s="12" t="s">
+      <c r="K139" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4256,28 +4274,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="12">
+      <c r="A141" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="12">
+      <c r="B141" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="12">
+      <c r="C141" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D141" t="s" s="12">
+      <c r="D141" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="12">
+      <c r="E141" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="12">
+      <c r="F141" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="12">
+      <c r="G141" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="12">
+      <c r="H141" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4302,28 +4320,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="12">
+      <c r="B143" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="12">
+      <c r="C143" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="12">
+      <c r="D143" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="12">
+      <c r="E143" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="12">
+      <c r="F143" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="12">
+      <c r="G143" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="12">
+      <c r="H143" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="12">
+      <c r="I143" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4498,10 +4516,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="12" t="s">
+      <c r="J149" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K149" s="12" t="s">
+      <c r="K149" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4545,28 +4563,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="12">
+      <c r="A151" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="12">
+      <c r="B151" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="12">
+      <c r="C151" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D151" t="s" s="12">
+      <c r="D151" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="12">
+      <c r="E151" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="12">
+      <c r="F151" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="12">
+      <c r="G151" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="12">
+      <c r="H151" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4591,28 +4609,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="12">
+      <c r="B153" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="12">
+      <c r="C153" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="12">
+      <c r="D153" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="12">
+      <c r="E153" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="12">
+      <c r="F153" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="12">
+      <c r="G153" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="12">
+      <c r="H153" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="12">
+      <c r="I153" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4758,10 +4776,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="12" t="s">
+      <c r="J158" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K158" s="12" t="s">
+      <c r="K158" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4805,28 +4823,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="12">
+      <c r="A160" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="12">
+      <c r="B160" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="12">
+      <c r="C160" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D160" t="s" s="12">
+      <c r="D160" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="12">
+      <c r="E160" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="12">
+      <c r="F160" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="12">
+      <c r="G160" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="12">
+      <c r="H160" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4851,28 +4869,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="12">
+      <c r="B162" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="12">
+      <c r="C162" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="12">
+      <c r="D162" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="12">
+      <c r="E162" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="12">
+      <c r="F162" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="12">
+      <c r="G162" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="12">
+      <c r="H162" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="12">
+      <c r="I162" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5047,10 +5065,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="12" t="s">
+      <c r="J168" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K168" s="12" t="s">
+      <c r="K168" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5094,28 +5112,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="12">
+      <c r="A170" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="12">
+      <c r="C170" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D170" t="s" s="12">
+      <c r="D170" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5140,28 +5158,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="12">
+      <c r="C172" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="12">
+      <c r="D172" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="12">
+      <c r="E172" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="12">
+      <c r="F172" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="12">
+      <c r="G172" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="12">
+      <c r="H172" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="12">
+      <c r="I172" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5278,10 +5296,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="12" t="s">
+      <c r="J176" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K176" s="12" t="s">
+      <c r="K176" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5325,28 +5343,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="12">
+      <c r="A178" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="12">
+      <c r="B178" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="12">
+      <c r="C178" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D178" t="s" s="12">
+      <c r="D178" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="12">
+      <c r="E178" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="12">
+      <c r="F178" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="12">
+      <c r="G178" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="12">
+      <c r="H178" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5371,28 +5389,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="12">
+      <c r="B180" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="12">
+      <c r="C180" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="12">
+      <c r="D180" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="12">
+      <c r="E180" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="12">
+      <c r="F180" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="12">
+      <c r="G180" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="12">
+      <c r="H180" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="12">
+      <c r="I180" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5480,10 +5498,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="12" t="s">
+      <c r="J183" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K183" s="12" t="s">
+      <c r="K183" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5527,28 +5545,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="12">
+      <c r="A185" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="12">
+      <c r="B185" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="12">
+      <c r="C185" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D185" t="s" s="12">
+      <c r="D185" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="12">
+      <c r="E185" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="12">
+      <c r="F185" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="12">
+      <c r="G185" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="12">
+      <c r="H185" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5573,28 +5591,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="12">
+      <c r="B187" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="12">
+      <c r="C187" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="12">
+      <c r="D187" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="12">
+      <c r="E187" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="12">
+      <c r="F187" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="12">
+      <c r="G187" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="12">
+      <c r="H187" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="12">
+      <c r="I187" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5682,10 +5700,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="12" t="s">
+      <c r="J190" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K190" s="12" t="s">
+      <c r="K190" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5729,28 +5747,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="12">
+      <c r="A192" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="12">
+      <c r="B192" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="12">
+      <c r="C192" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D192" t="s" s="12">
+      <c r="D192" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="12">
+      <c r="E192" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="12">
+      <c r="F192" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="12">
+      <c r="G192" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="12">
+      <c r="H192" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5775,28 +5793,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="12">
+      <c r="B194" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="12">
+      <c r="C194" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="12">
+      <c r="D194" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="12">
+      <c r="E194" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="12">
+      <c r="F194" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="12">
+      <c r="G194" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="12">
+      <c r="H194" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="12">
+      <c r="I194" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5855,10 +5873,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="12" t="s">
+      <c r="J196" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K196" s="12" t="s">
+      <c r="K196" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
